--- a/Assets/base_stats.xlsx
+++ b/Assets/base_stats.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">SPECIES</t>
+    <t xml:space="preserve">job</t>
   </si>
   <si>
     <t xml:space="preserve">MAX_HP</t>
@@ -174,10 +174,10 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -311,31 +311,31 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
@@ -344,31 +344,31 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
@@ -377,31 +377,31 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -410,31 +410,31 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="n">
